--- a/st00.docs/html&css정리.20180706.xlsx
+++ b/st00.docs/html&css정리.20180706.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="css" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="256">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>padding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>padding-right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,9 +84,6 @@
   <si>
     <t>border-color</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin</t>
   </si>
   <si>
     <t>margin-top</t>
@@ -885,13 +874,6 @@
 left
 right
 both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static
-relative
-absolute
-fiexed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1002,6 +984,93 @@
     <t xml:space="preserve">플렉서블 박스 안의 플렉스 아이템의 크기가 넘칠 경우 크기를 줄일 수 있는 속성입니다. 속성값은 비율로 설정 합니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">static
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>relative</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>absolute</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+fiexed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding
+(안쪽여백)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin
+(바깥여백)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래쪽부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽에서부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽에서부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위쪽을 기준으로 전체 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1010,7 +1079,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1148,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="나눔고딕코딩"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="나눔고딕코딩"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1194,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,6 +1410,27 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,27 +1446,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1377,6 +1454,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1931,12 +2017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1947,303 +2033,303 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>31</v>
+      <c r="A3" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>147</v>
-      </c>
       <c r="E10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="25"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>37</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2255,192 +2341,192 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D28" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A29" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="5" t="s">
+      <c r="D40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2451,257 +2537,267 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D44" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="5" t="s">
+      <c r="D45" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="5" t="s">
+      <c r="D46" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="D48" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D49" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="53"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D50" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>117</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="49"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="56"/>
       <c r="E54" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D59" s="34"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>19</v>
+      <c r="A62" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="5"/>
@@ -2714,137 +2810,137 @@
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>82</v>
+      <c r="A68" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A73" s="47"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="E73" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="47"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="47"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A76" s="47"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="47"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="41" t="s">
+      <c r="D77" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="48"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="40" t="s">
-        <v>85</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E78" s="41"/>
     </row>
@@ -2852,17 +2948,22 @@
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
     <mergeCell ref="A68:A78"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A1:D1"/>
@@ -2879,11 +2980,6 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2979,356 +3075,356 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
       <c r="B3" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="60"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
